--- a/statistics/yesterday_prediction.xlsx
+++ b/statistics/yesterday_prediction.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02099	</t>
+          <t xml:space="preserve">00667	</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -530,19 +530,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">20	</t>
+          <t xml:space="preserve">19	</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">00027	</t>
+          <t xml:space="preserve">02099	</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,19 +577,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">9	</t>
+          <t xml:space="preserve">20	</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">00345	</t>
+          <t xml:space="preserve">00027	</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -629,14 +629,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">12	</t>
+          <t xml:space="preserve">9	</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">00468	</t>
+          <t xml:space="preserve">00345	</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -676,14 +676,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">18	</t>
+          <t xml:space="preserve">12	</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">00517	</t>
+          <t xml:space="preserve">00468	</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,19 +718,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">13	</t>
+          <t xml:space="preserve">18	</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">00880	</t>
+          <t xml:space="preserve">00517	</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -760,24 +760,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">16	</t>
+          <t xml:space="preserve">13	</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">01238	</t>
+          <t xml:space="preserve">00799	</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -807,24 +807,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">14	</t>
+          <t xml:space="preserve">25	</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00665	</t>
+          <t xml:space="preserve">00880	</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -864,54 +864,195 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">17	</t>
+          <t xml:space="preserve">16	</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t xml:space="preserve">01238	</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14	</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00665	</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17	</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t xml:space="preserve">01098	</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01635	</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15	</t>
         </is>
       </c>
     </row>

--- a/statistics/yesterday_prediction.xlsx
+++ b/statistics/yesterday_prediction.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,22 +448,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00347	</t>
+          <t xml:space="preserve">000703	</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,24 +483,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">14	</t>
+          <t xml:space="preserve">10	</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00667	</t>
+          <t xml:space="preserve">000717	</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -510,12 +510,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -530,19 +530,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19	</t>
+          <t xml:space="preserve">15	</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">02099	</t>
+          <t xml:space="preserve">000825	</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -582,14 +582,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">20	</t>
+          <t xml:space="preserve">15	</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">00027	</t>
+          <t xml:space="preserve">002309	</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -614,29 +614,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">9	</t>
+          <t xml:space="preserve">14	</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">00345	</t>
+          <t xml:space="preserve">300480	</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -661,29 +661,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">12	</t>
+          <t xml:space="preserve">15	</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">00468	</t>
+          <t xml:space="preserve">300550	</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -698,39 +698,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">18	</t>
+          <t xml:space="preserve">13	</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">00517	</t>
+          <t xml:space="preserve">301009	</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">00799	</t>
+          <t xml:space="preserve">600381	</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -792,12 +792,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -812,19 +812,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">25	</t>
+          <t xml:space="preserve">18	</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">00880	</t>
+          <t xml:space="preserve">688169	</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -839,17 +839,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -859,19 +859,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">16	</t>
+          <t xml:space="preserve">38	</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">01238	</t>
+          <t xml:space="preserve">601801	</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -911,14 +911,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">14	</t>
+          <t xml:space="preserve">16	</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">00665	</t>
+          <t xml:space="preserve">603979	</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -938,34 +938,34 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">17	</t>
+          <t xml:space="preserve">34	</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">01098	</t>
+          <t xml:space="preserve">605577	</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -985,34 +985,34 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">18	</t>
+          <t xml:space="preserve">30	</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">01635	</t>
+          <t xml:space="preserve">688330	</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1047,12 +1047,435 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">15	</t>
+          <t xml:space="preserve">28	</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002022	</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6	</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600221	</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11	</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601003	</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10	</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601728	</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601899	</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33	</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601997	</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32	</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">000401	</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5	</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">000656	</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17	</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">000671	</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14	</t>
         </is>
       </c>
     </row>

--- a/statistics/yesterday_prediction.xlsx
+++ b/statistics/yesterday_prediction.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">000703	</t>
+          <t xml:space="preserve">00806	</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,12 +468,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -488,14 +488,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10	</t>
+          <t xml:space="preserve">14	</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">000717	</t>
+          <t xml:space="preserve">01268	</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -535,14 +535,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">15	</t>
+          <t xml:space="preserve">17	</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">000825	</t>
+          <t xml:space="preserve">01516	</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,17 +562,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -582,14 +582,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">15	</t>
+          <t xml:space="preserve">13	</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">002309	</t>
+          <t xml:space="preserve">02777	</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -629,14 +629,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">14	</t>
+          <t xml:space="preserve">23	</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">300480	</t>
+          <t xml:space="preserve">00338	</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -676,14 +676,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">15	</t>
+          <t xml:space="preserve">14	</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">300550	</t>
+          <t xml:space="preserve">01238	</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -723,14 +723,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">13	</t>
+          <t xml:space="preserve">14	</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">301009	</t>
+          <t xml:space="preserve">03319	</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -770,14 +770,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">13	</t>
+          <t xml:space="preserve">16	</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">600381	</t>
+          <t xml:space="preserve">03328	</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -817,665 +817,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">18	</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">688169	</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">38	</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">601801	</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
           <t xml:space="preserve">16	</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">603979	</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">34	</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">605577	</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">30	</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">688330	</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28	</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">002022	</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6	</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">600221	</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11	</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">601003	</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10	</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">601728	</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24	</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">601899	</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">33	</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">601997	</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">32	</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">000401	</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5	</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">000656	</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17	</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">000671	</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14	</t>
         </is>
       </c>
     </row>

--- a/statistics/yesterday_prediction.xlsx
+++ b/statistics/yesterday_prediction.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00806	</t>
+          <t xml:space="preserve">000056	</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -488,14 +488,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">14	</t>
+          <t xml:space="preserve">11	</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">01268	</t>
+          <t xml:space="preserve">000401	</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -525,24 +525,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">17	</t>
+          <t xml:space="preserve">5	</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">01516	</t>
+          <t xml:space="preserve">000505	</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,12 +562,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -582,14 +582,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">13	</t>
+          <t xml:space="preserve">10	</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">02777	</t>
+          <t xml:space="preserve">000616	</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -619,24 +619,24 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">23	</t>
+          <t xml:space="preserve">13	</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">00338	</t>
+          <t xml:space="preserve">000656	</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -676,14 +676,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">14	</t>
+          <t xml:space="preserve">17	</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">01238	</t>
+          <t xml:space="preserve">000671	</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -693,22 +693,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">03319	</t>
+          <t xml:space="preserve">000785	</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">16	</t>
+          <t xml:space="preserve">20	</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">03328	</t>
+          <t xml:space="preserve">000789	</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -792,12 +792,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>√</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>√</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -817,7 +817,5412 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">000961	</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t xml:space="preserve">16	</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">000987	</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002001	</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3	</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002024	</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8	</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002127	</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12	</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002146	</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13	</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002212	</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7	</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002233	</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10	</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002443	</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13	</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002463	</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15	</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002493	</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002582	</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17	</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002773	</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19	</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002798	</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26	</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">003007	</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10	</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">003038	</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14	</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300006	</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9	</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300087	</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300089	</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20	</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300158	</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17	</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300225	</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12	</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300285	</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300308	</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14	</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300616	</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16	</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300767	</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23	</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300768	</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300806	</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17	</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300848	</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23	</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300972	</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21	</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301026	</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12	</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301248	</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600061	</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13	</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600189	</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600221	</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11	</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600289	</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25	</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600306	</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15	</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600311	</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11	</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600567	</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600612	</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15	</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600643	</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19	</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600683	</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23	</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600748	</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25	</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600767	</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26	</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600814	</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19	</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600820	</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16	</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600848	</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26	</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600928	</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25	</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600966	</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27	</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600977	</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29	</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601162	</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16	</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601166	</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20	</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601187	</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23	</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601233	</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15	</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601512	</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15	</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601568	</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26	</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601665	</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603027	</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603110	</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11	</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603180	</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603208	</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19	</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603267	</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603313	</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16	</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603815	</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23	</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603818	</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26	</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603836	</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26	</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603915	</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603989	</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35	</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">605337	</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">688075	</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34	</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">688163	</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32	</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">688175	</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35	</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">688287	</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39	</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">688569	</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42	</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002774	</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20	</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002841	</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15	</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300249	</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300467	</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20	</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300476	</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20	</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300480	</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15	</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300550	</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13	</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300588	</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300599	</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26	</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300609	</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300786	</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300872	</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20	</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301213	</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10	</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600108	</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15	</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600246	</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600266	</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20	</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600850	</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19	</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601028	</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17	</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601098	</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601728	</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601858	</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28	</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601952	</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23	</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601997	</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32	</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603533	</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20	</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">603887	</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32	</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">688201	</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25	</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">688272	</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33	</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">688565	</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38	</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002423	</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11	</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002532	</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12	</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002833	</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16	</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300413	</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11	</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300669	</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24	</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600016	</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13	</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600050	</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11	</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">600056	</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17	</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002084	</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14	</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300753	</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18	</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300815	</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17	</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601003	</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10	</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601360	</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16	</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601860	</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21	</t>
         </is>
       </c>
     </row>
